--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3609.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3609.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.287571747241532</v>
+        <v>1.265357613563538</v>
       </c>
       <c r="B1">
-        <v>2.358678210172351</v>
+        <v>2.468292713165283</v>
       </c>
       <c r="C1">
-        <v>3.617016645514216</v>
+        <v>4.623887538909912</v>
       </c>
       <c r="D1">
-        <v>2.85706042353421</v>
+        <v>2.009847164154053</v>
       </c>
       <c r="E1">
-        <v>0.9133387423588702</v>
+        <v>1.146043658256531</v>
       </c>
     </row>
   </sheetData>
